--- a/RCS_table.xlsx
+++ b/RCS_table.xlsx
@@ -402,13 +402,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13">
-        <v>0.11692737918378049</v>
+        <v>0.11797605523027178</v>
       </c>
       <c r="C7" s="14">
-        <v>0.37813510443065634</v>
+        <v>0.37822249410119724</v>
       </c>
       <c r="D7" s="15">
-        <v>0.50493751638556328</v>
+        <v>0.50380145066853099</v>
       </c>
     </row>
   </sheetData>
